--- a/Касса/Набор в печать книжек.xlsx
+++ b/Касса/Набор в печать книжек.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Номер в базе</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Стоматология Коржевой 0505808271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Языкомания </t>
+  </si>
+  <si>
+    <t>уже оплачено</t>
   </si>
 </sst>
 </file>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +501,34 @@
         <v>41122</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1">
+        <v>41135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
